--- a/P4_CreateReportDB/top_customer_categories.xlsx
+++ b/P4_CreateReportDB/top_customer_categories.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\become-business-analyst\P4_CreateReportDB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DBC0BE9D-E648-468F-9EA4-B228D5B95109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="top_customer_categories" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="25">
   <si>
     <t>CompanyName</t>
   </si>
@@ -104,8 +98,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,24 +700,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -738,15 +732,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -763,24 +757,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[top_customer_categories.xlsx]Sheet1!数据透视表9</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -823,49 +806,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -874,21 +815,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -909,49 +850,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -960,21 +859,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent3">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent3">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent3">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -995,49 +894,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1046,21 +903,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent4">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent4">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent4">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1081,49 +938,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1132,21 +947,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent5">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent5">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1167,49 +982,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1218,21 +991,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent6">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent6">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent6">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1253,49 +1026,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1305,6 +1036,7 @@
             <a:gsLst>
               <a:gs pos="0">
                 <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
@@ -1312,6 +1044,7 @@
               </a:gs>
               <a:gs pos="50000">
                 <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
@@ -1319,6 +1052,7 @@
               </a:gs>
               <a:gs pos="100000">
                 <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1339,54 +1073,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1395,21 +1082,24 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1430,54 +1120,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1489,7 +1132,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1542,7 +1184,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$15</c:f>
@@ -1620,7 +1261,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FC1E-455A-9AF7-F838D2261689}"/>
             </c:ext>
@@ -1678,7 +1319,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$15</c:f>
@@ -1756,7 +1396,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FC1E-455A-9AF7-F838D2261689}"/>
             </c:ext>
@@ -1814,7 +1454,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$15</c:f>
@@ -1892,7 +1531,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FC1E-455A-9AF7-F838D2261689}"/>
             </c:ext>
@@ -1950,7 +1589,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$15</c:f>
@@ -2028,7 +1666,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-FC1E-455A-9AF7-F838D2261689}"/>
             </c:ext>
@@ -2086,7 +1724,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$15</c:f>
@@ -2161,7 +1798,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-FC1E-455A-9AF7-F838D2261689}"/>
             </c:ext>
@@ -2219,7 +1856,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$15</c:f>
@@ -2297,7 +1933,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-FC1E-455A-9AF7-F838D2261689}"/>
             </c:ext>
@@ -2358,7 +1994,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$15</c:f>
@@ -2436,7 +2071,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-FC1E-455A-9AF7-F838D2261689}"/>
             </c:ext>
@@ -2497,7 +2132,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$5:$A$15</c:f>
@@ -2575,35 +2209,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-FC1E-455A-9AF7-F838D2261689}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="557295184"/>
-        <c:axId val="558419816"/>
+        <c:axId val="116502528"/>
+        <c:axId val="116504064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="557295184"/>
+        <c:axId val="116502528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2637,19 +2260,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558419816"/>
+        <c:crossAx val="116504064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="558419816"/>
+        <c:axId val="116504064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2667,7 +2288,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2695,7 +2315,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557295184"/>
+        <c:crossAx val="116502528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2709,7 +2329,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2739,14 +2358,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -2786,10 +2404,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -2805,6 +2423,875 @@
       </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:pivotSource>
+    <c:name>[top_customer_categories.xlsx]Sheet1!数据透视表9</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>前</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>名客户公司采购产品种类以及采购额</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beverages</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ernst Handel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Folk och f锟?HB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hanari Carnes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hungry Owl All-Night Grocers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>K锟絥iglich Essen</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M锟絩e Paillarde</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>QUICK-Stop</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Rattlesnake Canyon Grocery</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Save-a-lot Markets</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>White Clover Markets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12709.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3865.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20084.150000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3145.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9455.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9415.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36216.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19208.150000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10032</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8884.7000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Condiments</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ernst Handel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Folk och f锟?HB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hanari Carnes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hungry Owl All-Night Grocers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>K锟絥iglich Essen</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M锟絩e Paillarde</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>QUICK-Stop</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Rattlesnake Canyon Grocery</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Save-a-lot Markets</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>White Clover Markets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14070.0625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3651.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2378.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3477.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2809.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9214.9349999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1503.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7873</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4174.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Confections</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ernst Handel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Folk och f锟?HB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hanari Carnes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hungry Owl All-Night Grocers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>K锟絥iglich Essen</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M锟絩e Paillarde</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>QUICK-Stop</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Rattlesnake Canyon Grocery</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Save-a-lot Markets</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>White Clover Markets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12815.7575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>978.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1676.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4751.4639999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2915.605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18530.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10947.213</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11900.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3714.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dairy Products</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ernst Handel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Folk och f锟?HB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hanari Carnes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hungry Owl All-Night Grocers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>K锟絥iglich Essen</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M锟絩e Paillarde</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>QUICK-Stop</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Rattlesnake Canyon Grocery</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Save-a-lot Markets</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>White Clover Markets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24496.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3654.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2252.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9010.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7098.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4766.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13800.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7854.87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21107.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3297.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grains/Cereals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ernst Handel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Folk och f锟?HB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hanari Carnes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hungry Owl All-Night Grocers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>K锟絥iglich Essen</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M锟絩e Paillarde</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>QUICK-Stop</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Rattlesnake Canyon Grocery</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Save-a-lot Markets</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>White Clover Markets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12737.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>641.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1442.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4553.8500000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5310.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4831.3050000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8298.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>577.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$3:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Meat/Poultry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ernst Handel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Folk och f锟?HB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hanari Carnes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hungry Owl All-Night Grocers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>K锟絥iglich Essen</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M锟絩e Paillarde</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>QUICK-Stop</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Rattlesnake Canyon Grocery</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Save-a-lot Markets</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>White Clover Markets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8325.5560000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5398.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20914.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4254.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2074.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9754.9599999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3657.28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27659.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3707.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$3:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Produce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ernst Handel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Folk och f锟?HB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hanari Carnes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hungry Owl All-Night Grocers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>K锟絥iglich Essen</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M锟絩e Paillarde</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>QUICK-Stop</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Rattlesnake Canyon Grocery</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Save-a-lot Markets</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>White Clover Markets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12469.6675</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1261.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3414.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>167.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8081.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2211.0524999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3887.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>182.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Seafood</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ernst Handel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Folk och f锟?HB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hanari Carnes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hungry Owl All-Night Grocers</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>K锟絥iglich Essen</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M锟絩e Paillarde</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>QUICK-Stop</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Rattlesnake Canyon Grocery</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Save-a-lot Markets</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>White Clover Markets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7250.4750000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2533.7375000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4425.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6899.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3309.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9367.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>884.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13604.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="223273344"/>
+        <c:axId val="223274880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="223273344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="223274880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="223274880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="223273344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3348,23 +3835,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B03DA8-7837-4C4E-87AE-21E85C9D1197}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B03DA8-7837-4C4E-87AE-21E85C9D1197}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3377,6 +3864,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>923923</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3837,7 +4354,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表9" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="A3:J15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3945,7 +4462,7 @@
   <dataFields count="1">
     <dataField name="求和项:TotalCost" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="9">
+  <chartFormats count="25">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -4054,6 +4571,198 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4110,7 +4819,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4162,7 +4871,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4356,21 +5065,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
@@ -4383,7 +5092,7 @@
     <col min="10" max="11" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -4391,7 +5100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -4423,7 +5132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -4455,7 +5164,7 @@
         <v>104874.9785</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -4487,7 +5196,7 @@
         <v>29567.5625</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -4519,7 +5228,7 @@
         <v>32841.37000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -4551,7 +5260,7 @@
         <v>49979.905000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -4581,7 +5290,7 @@
         <v>30908.383999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -4613,7 +5322,7 @@
         <v>28872.19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -4645,7 +5354,7 @@
         <v>110277.30500000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -4677,7 +5386,7 @@
         <v>51097.800500000005</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -4709,7 +5418,7 @@
         <v>104361.95</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -4741,7 +5450,7 @@
         <v>27363.605000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -4781,21 +5490,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4806,7 +5515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4817,7 +5526,7 @@
         <v>24496.46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4828,7 +5537,7 @@
         <v>14070.0625</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4839,7 +5548,7 @@
         <v>12815.7575</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4850,7 +5559,7 @@
         <v>12737.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4861,7 +5570,7 @@
         <v>12709.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -4872,7 +5581,7 @@
         <v>12469.6675</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -4883,7 +5592,7 @@
         <v>8325.5560000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -4894,7 +5603,7 @@
         <v>7250.4750000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4905,7 +5614,7 @@
         <v>6464</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4916,7 +5625,7 @@
         <v>5398.125</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4927,7 +5636,7 @@
         <v>3865.32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4938,7 +5647,7 @@
         <v>3654.95</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4949,7 +5658,7 @@
         <v>3651.5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4960,7 +5669,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -4971,7 +5680,7 @@
         <v>2533.7375000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -4982,7 +5691,7 @@
         <v>978.93</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -4993,7 +5702,7 @@
         <v>20084.150000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -5004,7 +5713,7 @@
         <v>4425.75</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -5015,7 +5724,7 @@
         <v>2378.77</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -5026,7 +5735,7 @@
         <v>2252.9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -5037,7 +5746,7 @@
         <v>1261.4000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -5048,7 +5757,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -5059,7 +5768,7 @@
         <v>641.4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -5070,7 +5779,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -5081,7 +5790,7 @@
         <v>20914.23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -5092,7 +5801,7 @@
         <v>9010.11</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -5103,7 +5812,7 @@
         <v>6899.18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -5114,7 +5823,7 @@
         <v>3477.625</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -5125,7 +5834,7 @@
         <v>3414.66</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -5136,7 +5845,7 @@
         <v>3145.32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -5147,7 +5856,7 @@
         <v>1676.38</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -5158,7 +5867,7 @@
         <v>1442.4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -5169,7 +5878,7 @@
         <v>9455.1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -5180,7 +5889,7 @@
         <v>7098.25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -5191,7 +5900,7 @@
         <v>4751.4639999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -5202,7 +5911,7 @@
         <v>4254.42</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -5213,7 +5922,7 @@
         <v>3309.75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -5224,7 +5933,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -5235,7 +5944,7 @@
         <v>167.4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -5246,7 +5955,7 @@
         <v>9415.81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -5257,7 +5966,7 @@
         <v>4766.625</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -5268,7 +5977,7 @@
         <v>4553.8500000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -5279,7 +5988,7 @@
         <v>2915.605</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -5290,7 +5999,7 @@
         <v>2809.5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -5301,7 +6010,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -5312,7 +6021,7 @@
         <v>2074.8000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -5323,7 +6032,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -5334,7 +6043,7 @@
         <v>36216.43</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -5345,7 +6054,7 @@
         <v>18530.09</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -5356,7 +6065,7 @@
         <v>13800.85</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -5367,7 +6076,7 @@
         <v>9754.9599999999991</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -5378,7 +6087,7 @@
         <v>9367.74</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -5389,7 +6098,7 @@
         <v>9214.9349999999995</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -5400,7 +6109,7 @@
         <v>8081.4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -5411,7 +6120,7 @@
         <v>5310.9</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -5422,7 +6131,7 @@
         <v>19208.150000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -5433,7 +6142,7 @@
         <v>10947.213</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -5444,7 +6153,7 @@
         <v>7854.87</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -5455,7 +6164,7 @@
         <v>4831.3050000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -5466,7 +6175,7 @@
         <v>3657.28</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -5477,7 +6186,7 @@
         <v>2211.0524999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -5488,7 +6197,7 @@
         <v>1503.2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -5499,7 +6208,7 @@
         <v>884.73</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -5510,7 +6219,7 @@
         <v>27659.18</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -5521,7 +6230,7 @@
         <v>21107.1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -5532,7 +6241,7 @@
         <v>13604.6</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -5543,7 +6252,7 @@
         <v>11900.07</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -5554,7 +6263,7 @@
         <v>10032</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -5565,7 +6274,7 @@
         <v>8298.1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -5576,7 +6285,7 @@
         <v>7873</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -5587,7 +6296,7 @@
         <v>3887.9</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -5598,7 +6307,7 @@
         <v>8884.7000000000007</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -5609,7 +6318,7 @@
         <v>4174.13</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -5620,7 +6329,7 @@
         <v>3714.125</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -5631,7 +6340,7 @@
         <v>3707.95</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -5642,7 +6351,7 @@
         <v>3297.7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -5653,7 +6362,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -5664,7 +6373,7 @@
         <v>577.6</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>20</v>
       </c>
